--- a/data/DailyConfirmedCasesMA.xlsx
+++ b/data/DailyConfirmedCasesMA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B92A6B7-CE70-CB44-BB5B-0BB89EF7AEEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B303B22-69AC-0F4C-914E-CBC37BB4CBD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3085,6 +3085,33 @@
       <c r="G102" s="11">
         <f>G101+E102</f>
         <v>27900</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B103" s="13">
+        <v>1186</v>
+      </c>
+      <c r="C103" s="3">
+        <f>AVERAGE(B97:B103)</f>
+        <v>1877.8571428571429</v>
+      </c>
+      <c r="D103" s="11">
+        <f>D102+B103</f>
+        <v>166352</v>
+      </c>
+      <c r="E103">
+        <v>210</v>
+      </c>
+      <c r="F103" s="3">
+        <f>AVERAGE(E97:E103)</f>
+        <v>476</v>
+      </c>
+      <c r="G103" s="11">
+        <f>G102+E103</f>
+        <v>28110</v>
       </c>
     </row>
   </sheetData>
